--- a/VMS_1/Strength_May_2024.xlsx
+++ b/VMS_1/Strength_May_2024.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>PAGE 13</t>
   </si>
@@ -48,33 +48,6 @@
   </si>
   <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t>01 May 2024</t>
-  </si>
-  <si>
-    <t>02 May 2024</t>
-  </si>
-  <si>
-    <t>03 May 2024</t>
-  </si>
-  <si>
-    <t>04 May 2024</t>
-  </si>
-  <si>
-    <t>05 May 2024</t>
-  </si>
-  <si>
-    <t>06 May 2024</t>
-  </si>
-  <si>
-    <t>07 May 2024</t>
-  </si>
-  <si>
-    <t>09 May 2024</t>
-  </si>
-  <si>
-    <t>10 May 2024</t>
   </si>
   <si>
     <t>NON ENTITLED</t>
@@ -332,274 +305,112 @@
       </c>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="3">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3">
-        <v>5</v>
-      </c>
-      <c r="D6" s="3">
-        <v>5</v>
-      </c>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="2">
-        <v>15</v>
-      </c>
-      <c r="G6" s="3">
-        <v>5</v>
-      </c>
-      <c r="H6" s="3">
-        <v>5</v>
-      </c>
-      <c r="I6" s="3">
-        <v>5</v>
-      </c>
-      <c r="J6" s="2">
-        <v>15</v>
-      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
     </row>
     <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="3">
-        <v>2</v>
-      </c>
-      <c r="C7" s="3">
-        <v>2</v>
-      </c>
-      <c r="D7" s="3">
-        <v>2</v>
-      </c>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="2">
-        <v>6</v>
-      </c>
-      <c r="G7" s="3">
-        <v>2</v>
-      </c>
-      <c r="H7" s="3">
-        <v>2</v>
-      </c>
-      <c r="I7" s="3">
-        <v>2</v>
-      </c>
-      <c r="J7" s="2">
-        <v>6</v>
-      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="3">
-        <v>3</v>
-      </c>
-      <c r="C8" s="3">
-        <v>4</v>
-      </c>
-      <c r="D8" s="3">
-        <v>6</v>
-      </c>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="2">
-        <v>13</v>
-      </c>
-      <c r="G8" s="3">
-        <v>8</v>
-      </c>
-      <c r="H8" s="3">
-        <v>4</v>
-      </c>
-      <c r="I8" s="3">
-        <v>7</v>
-      </c>
-      <c r="J8" s="2">
-        <v>19</v>
-      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="3">
-        <v>4</v>
-      </c>
-      <c r="C9" s="3">
-        <v>4</v>
-      </c>
-      <c r="D9" s="3">
-        <v>4</v>
-      </c>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="2">
-        <v>12</v>
-      </c>
-      <c r="G9" s="3">
-        <v>4</v>
-      </c>
-      <c r="H9" s="3">
-        <v>4</v>
-      </c>
-      <c r="I9" s="3">
-        <v>4</v>
-      </c>
-      <c r="J9" s="2">
-        <v>12</v>
-      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="3">
-        <v>5</v>
-      </c>
-      <c r="C10" s="3">
-        <v>5</v>
-      </c>
-      <c r="D10" s="3">
-        <v>5</v>
-      </c>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="2">
-        <v>15</v>
-      </c>
-      <c r="G10" s="3">
-        <v>5</v>
-      </c>
-      <c r="H10" s="3">
-        <v>5</v>
-      </c>
-      <c r="I10" s="3">
-        <v>5</v>
-      </c>
-      <c r="J10" s="2">
-        <v>15</v>
-      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="3">
-        <v>10</v>
-      </c>
-      <c r="C11" s="3">
-        <v>30</v>
-      </c>
-      <c r="D11" s="3">
-        <v>45</v>
-      </c>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="2">
-        <v>85</v>
-      </c>
-      <c r="G11" s="3">
-        <v>78</v>
-      </c>
-      <c r="H11" s="3">
-        <v>82</v>
-      </c>
-      <c r="I11" s="3">
-        <v>23</v>
-      </c>
-      <c r="J11" s="2">
-        <v>183</v>
-      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
     </row>
     <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="3">
-        <v>7</v>
-      </c>
-      <c r="C12" s="3">
-        <v>7</v>
-      </c>
-      <c r="D12" s="3">
-        <v>7</v>
-      </c>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="2">
-        <v>21</v>
-      </c>
-      <c r="G12" s="3">
-        <v>7</v>
-      </c>
-      <c r="H12" s="3">
-        <v>7</v>
-      </c>
-      <c r="I12" s="3">
-        <v>7</v>
-      </c>
-      <c r="J12" s="2">
-        <v>21</v>
-      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
     </row>
     <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="3">
-        <v>2</v>
-      </c>
-      <c r="C13" s="3">
-        <v>2</v>
-      </c>
-      <c r="D13" s="3">
-        <v>2</v>
-      </c>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="2">
-        <v>6</v>
-      </c>
-      <c r="G13" s="3">
-        <v>2</v>
-      </c>
-      <c r="H13" s="3">
-        <v>2</v>
-      </c>
-      <c r="I13" s="3">
-        <v>2</v>
-      </c>
-      <c r="J13" s="2">
-        <v>6</v>
-      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
     </row>
     <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="3">
-        <v>10</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1</v>
-      </c>
-      <c r="D14" s="3">
-        <v>1</v>
-      </c>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="2">
-        <v>12</v>
-      </c>
-      <c r="G14" s="3">
-        <v>1</v>
-      </c>
-      <c r="H14" s="3">
-        <v>1</v>
-      </c>
-      <c r="I14" s="3">
-        <v>1</v>
-      </c>
-      <c r="J14" s="2">
-        <v>3</v>
-      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" s="3"/>
@@ -867,13 +678,13 @@
     </row>
     <row r="37" ht="15" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>4</v>
@@ -881,8 +692,8 @@
       <c r="E37" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F37" s="2">
-        <v>42</v>
+      <c r="F37" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>5</v>
@@ -893,45 +704,45 @@
       <c r="I37" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J37" s="2">
-        <v>106</v>
+      <c r="J37" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J38" s="2">
-        <v>42</v>
+        <v>13</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B39" s="2">
         <f>SUM(B6:B36)</f>

--- a/VMS_1/Strength_May_2024.xlsx
+++ b/VMS_1/Strength_May_2024.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>PAGE 13</t>
   </si>
@@ -48,6 +48,33 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>01 May 2024</t>
+  </si>
+  <si>
+    <t>02 May 2024</t>
+  </si>
+  <si>
+    <t>03 May 2024</t>
+  </si>
+  <si>
+    <t>04 May 2024</t>
+  </si>
+  <si>
+    <t>05 May 2024</t>
+  </si>
+  <si>
+    <t>06 May 2024</t>
+  </si>
+  <si>
+    <t>07 May 2024</t>
+  </si>
+  <si>
+    <t>09 May 2024</t>
+  </si>
+  <si>
+    <t>10 May 2024</t>
   </si>
   <si>
     <t>NON ENTITLED</t>
@@ -305,112 +332,274 @@
       </c>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3">
+        <v>5</v>
+      </c>
       <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="F6" s="2">
+        <v>15</v>
+      </c>
+      <c r="G6" s="3">
+        <v>5</v>
+      </c>
+      <c r="H6" s="3">
+        <v>5</v>
+      </c>
+      <c r="I6" s="3">
+        <v>5</v>
+      </c>
+      <c r="J6" s="2">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2</v>
+      </c>
       <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="F7" s="2">
+        <v>6</v>
+      </c>
+      <c r="G7" s="3">
+        <v>2</v>
+      </c>
+      <c r="H7" s="3">
+        <v>2</v>
+      </c>
+      <c r="I7" s="3">
+        <v>2</v>
+      </c>
+      <c r="J7" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3">
+        <v>4</v>
+      </c>
+      <c r="D8" s="3">
+        <v>6</v>
+      </c>
       <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+      <c r="F8" s="2">
+        <v>13</v>
+      </c>
+      <c r="G8" s="3">
+        <v>8</v>
+      </c>
+      <c r="H8" s="3">
+        <v>4</v>
+      </c>
+      <c r="I8" s="3">
+        <v>7</v>
+      </c>
+      <c r="J8" s="2">
+        <v>19</v>
+      </c>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3">
+        <v>4</v>
+      </c>
       <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
+      <c r="F9" s="2">
+        <v>12</v>
+      </c>
+      <c r="G9" s="3">
+        <v>4</v>
+      </c>
+      <c r="H9" s="3">
+        <v>4</v>
+      </c>
+      <c r="I9" s="3">
+        <v>4</v>
+      </c>
+      <c r="J9" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="A10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="3">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3">
+        <v>5</v>
+      </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="F10" s="2">
+        <v>15</v>
+      </c>
+      <c r="G10" s="3">
+        <v>5</v>
+      </c>
+      <c r="H10" s="3">
+        <v>5</v>
+      </c>
+      <c r="I10" s="3">
+        <v>5</v>
+      </c>
+      <c r="J10" s="2">
+        <v>15</v>
+      </c>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="3">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3">
+        <v>30</v>
+      </c>
+      <c r="D11" s="3">
+        <v>45</v>
+      </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="F11" s="2">
+        <v>85</v>
+      </c>
+      <c r="G11" s="3">
+        <v>78</v>
+      </c>
+      <c r="H11" s="3">
+        <v>82</v>
+      </c>
+      <c r="I11" s="3">
+        <v>23</v>
+      </c>
+      <c r="J11" s="2">
+        <v>183</v>
+      </c>
     </row>
     <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="A12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="3">
+        <v>7</v>
+      </c>
+      <c r="C12" s="3">
+        <v>7</v>
+      </c>
+      <c r="D12" s="3">
+        <v>7</v>
+      </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="F12" s="2">
+        <v>21</v>
+      </c>
+      <c r="G12" s="3">
+        <v>7</v>
+      </c>
+      <c r="H12" s="3">
+        <v>7</v>
+      </c>
+      <c r="I12" s="3">
+        <v>7</v>
+      </c>
+      <c r="J12" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="A13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2</v>
+      </c>
+      <c r="D13" s="3">
+        <v>2</v>
+      </c>
       <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="F13" s="2">
+        <v>6</v>
+      </c>
+      <c r="G13" s="3">
+        <v>2</v>
+      </c>
+      <c r="H13" s="3">
+        <v>2</v>
+      </c>
+      <c r="I13" s="3">
+        <v>2</v>
+      </c>
+      <c r="J13" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="A14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="3">
+        <v>10</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
       <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="F14" s="2">
+        <v>12</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" s="3"/>
@@ -678,13 +867,13 @@
     </row>
     <row r="37" ht="15" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>4</v>
@@ -692,8 +881,8 @@
       <c r="E37" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F37" s="2" t="s">
-        <v>6</v>
+      <c r="F37" s="2">
+        <v>42</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>5</v>
@@ -704,45 +893,45 @@
       <c r="I37" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J37" s="2" t="s">
-        <v>6</v>
+      <c r="J37" s="2">
+        <v>106</v>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>6</v>
+        <v>22</v>
+      </c>
+      <c r="J38" s="2">
+        <v>42</v>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B39" s="2">
         <f>SUM(B6:B36)</f>
